--- a/biology/Zoologie/Amazone_à_diadème/Amazone_à_diadème.xlsx
+++ b/biology/Zoologie/Amazone_à_diadème/Amazone_à_diadème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_diad%C3%A8me</t>
+          <t>Amazone_à_diadème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona diadema
 L'Amazone à diadème (Amazona diadema), aussi connue en tant que Amazone diadème, est une espèce d'oiseaux appartenant à la famille  des  Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_diad%C3%A8me</t>
+          <t>Amazone_à_diadème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 32 à 34 cm de longueur. Comme la plupart des amazones, il présente un plumage essentiellement vert. Le front et les lores sont rouges. La calotte est bleuâtre. Une tache jaune, parfois absente, marque la base du bec sombre. Un miroir rouge est présent sur les rémiges secondaires.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_diad%C3%A8me</t>
+          <t>Amazone_à_diadème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique de l'état d'Amazonas, au Brésil.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_diad%C3%A8me</t>
+          <t>Amazone_à_diadème</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce bruyante (cris plutôt métalliques) est grégaire.
 </t>
